--- a/실무_엑셀_예제_파일/Chapter01/01-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-003.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285E53B-4555-4232-9846-57CA03698043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DC0C8-781E-43DC-8051-4A495127A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{FB60D82F-0771-4728-9B46-1288D16F90DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{FB60D82F-0771-4728-9B46-1288D16F90DF}"/>
   </bookViews>
   <sheets>
     <sheet name="카메라 재고 관리 대장 1월" sheetId="1" r:id="rId1"/>
     <sheet name="모든 오류 한번에 제거" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>브랜드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,165 +131,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>식품건조기</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>쌀냉장고</t>
   </si>
   <si>
     <t>냉장고</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>미니정수기</t>
   </si>
   <si>
     <t>정수기</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>라면포트</t>
   </si>
   <si>
     <t>전기포트</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>반찬냉장고</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>빌트인가스레인지</t>
   </si>
   <si>
     <t>가스레인지</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>보온포트</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>전기그릴</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>일반가스레인지</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>에어프라이어</t>
   </si>
   <si>
@@ -310,34 +182,13 @@
     <t>냉정수기</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>슬로우쿠커</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>에그마스터</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>김치냉장고</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>55</t>
   </si>
   <si>
     <t>정수기필터</t>
@@ -725,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,50 +631,56 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,20 +998,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86576D43-426F-4708-8CBA-509633A88DFE}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1024,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1070,7 @@
         <v>3040000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1093,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1116,7 @@
         <v>17160000</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1139,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1162,7 @@
         <v>7406000</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1185,7 @@
         <v>14640000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1208,7 @@
         <v>9810000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1231,7 @@
         <v>80640000</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1254,7 @@
         <v>11340000</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1277,7 @@
         <v>16110000</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1300,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1323,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
@@ -1487,17 +1346,17 @@
         <v>9360000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="17">
-        <f>SUM(H5:H16)</f>
-        <v>211496000</v>
+        <f>SUM(H5:H17)</f>
+        <v>220856000</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1515,650 +1374,652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055861E5-013C-472A-BD71-DA7FF8361726}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="28" t="s">
+    <row r="4" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="31">
+        <v>55</v>
+      </c>
+      <c r="E5" s="32">
+        <v>52</v>
+      </c>
+      <c r="F5" s="32">
+        <v>91</v>
+      </c>
+      <c r="G5" s="32">
+        <v>61</v>
+      </c>
+      <c r="H5" s="32">
+        <v>67</v>
+      </c>
+      <c r="I5" s="32">
+        <v>87</v>
+      </c>
+      <c r="J5" s="32">
+        <v>77</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" ref="K5:K22" si="0">SUM(E5:J5)</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="33">
+        <v>69</v>
+      </c>
+      <c r="E6" s="34">
+        <v>93</v>
+      </c>
+      <c r="F6" s="34">
+        <v>98</v>
+      </c>
+      <c r="G6" s="34">
+        <v>85</v>
+      </c>
+      <c r="H6" s="34">
+        <v>96</v>
+      </c>
+      <c r="I6" s="34">
+        <v>93</v>
+      </c>
+      <c r="J6" s="34">
+        <v>74</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="33">
+        <v>61</v>
+      </c>
+      <c r="E7" s="34">
+        <v>58</v>
+      </c>
+      <c r="F7" s="34">
+        <v>64</v>
+      </c>
+      <c r="G7" s="34">
+        <v>89</v>
+      </c>
+      <c r="H7" s="34">
+        <v>96</v>
+      </c>
+      <c r="I7" s="34">
         <v>100</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="J7" s="34">
+        <v>94</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="33">
+        <v>59</v>
+      </c>
+      <c r="E8" s="34">
+        <v>63</v>
+      </c>
+      <c r="F8" s="34">
+        <v>90</v>
+      </c>
+      <c r="G8" s="34">
+        <v>67</v>
+      </c>
+      <c r="H8" s="34">
+        <v>76</v>
+      </c>
+      <c r="I8" s="34">
+        <v>75</v>
+      </c>
+      <c r="J8" s="34">
+        <v>79</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="33">
+        <v>69</v>
+      </c>
+      <c r="E9" s="34">
+        <v>66</v>
+      </c>
+      <c r="F9" s="34">
+        <v>76</v>
+      </c>
+      <c r="G9" s="34">
+        <v>50</v>
+      </c>
+      <c r="H9" s="34">
+        <v>88</v>
+      </c>
+      <c r="I9" s="34">
+        <v>86</v>
+      </c>
+      <c r="J9" s="34">
         <v>99</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="K9" s="19">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="33">
+        <v>69</v>
+      </c>
+      <c r="E10" s="34">
+        <v>76</v>
+      </c>
+      <c r="F10" s="34">
+        <v>50</v>
+      </c>
+      <c r="G10" s="34">
+        <v>68</v>
+      </c>
+      <c r="H10" s="34">
+        <v>63</v>
+      </c>
+      <c r="I10" s="34">
+        <v>93</v>
+      </c>
+      <c r="J10" s="34">
+        <v>67</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="33">
+        <v>64</v>
+      </c>
+      <c r="E11" s="34">
+        <v>76</v>
+      </c>
+      <c r="F11" s="34">
+        <v>51</v>
+      </c>
+      <c r="G11" s="34">
+        <v>99</v>
+      </c>
+      <c r="H11" s="34">
+        <v>83</v>
+      </c>
+      <c r="I11" s="34">
+        <v>88</v>
+      </c>
+      <c r="J11" s="34">
+        <v>87</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="33">
+        <v>69</v>
+      </c>
+      <c r="E12" s="34">
+        <v>51</v>
+      </c>
+      <c r="F12" s="34">
+        <v>74</v>
+      </c>
+      <c r="G12" s="34">
+        <v>68</v>
+      </c>
+      <c r="H12" s="34">
+        <v>94</v>
+      </c>
+      <c r="I12" s="34">
+        <v>77</v>
+      </c>
+      <c r="J12" s="34">
+        <v>65</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="33">
+        <v>61</v>
+      </c>
+      <c r="E13" s="34">
+        <v>91</v>
+      </c>
+      <c r="F13" s="34">
+        <v>65</v>
+      </c>
+      <c r="G13" s="34">
+        <v>92</v>
+      </c>
+      <c r="H13" s="34">
+        <v>81</v>
+      </c>
+      <c r="I13" s="34">
+        <v>81</v>
+      </c>
+      <c r="J13" s="34">
+        <v>87</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="0"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33">
+        <v>61</v>
+      </c>
+      <c r="E14" s="34">
+        <v>76</v>
+      </c>
+      <c r="F14" s="34">
+        <v>51</v>
+      </c>
+      <c r="G14" s="34">
+        <v>72</v>
+      </c>
+      <c r="H14" s="34">
+        <v>61</v>
+      </c>
+      <c r="I14" s="34">
+        <v>56</v>
+      </c>
+      <c r="J14" s="34">
+        <v>83</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="33">
+        <v>60</v>
+      </c>
+      <c r="E15" s="34">
+        <v>77</v>
+      </c>
+      <c r="F15" s="34">
+        <v>95</v>
+      </c>
+      <c r="G15" s="34">
+        <v>92</v>
+      </c>
+      <c r="H15" s="34">
+        <v>99</v>
+      </c>
+      <c r="I15" s="34">
+        <v>83</v>
+      </c>
+      <c r="J15" s="34">
+        <v>67</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="33">
+        <v>59</v>
+      </c>
+      <c r="E16" s="34">
+        <v>69</v>
+      </c>
+      <c r="F16" s="34">
+        <v>62</v>
+      </c>
+      <c r="G16" s="34">
+        <v>97</v>
+      </c>
+      <c r="H16" s="34">
+        <v>99</v>
+      </c>
+      <c r="I16" s="34">
+        <v>56</v>
+      </c>
+      <c r="J16" s="34">
+        <v>93</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="33">
+        <v>50</v>
+      </c>
+      <c r="E17" s="34">
+        <v>65</v>
+      </c>
+      <c r="F17" s="34">
+        <v>70</v>
+      </c>
+      <c r="G17" s="34">
+        <v>77</v>
+      </c>
+      <c r="H17" s="34">
+        <v>83</v>
+      </c>
+      <c r="I17" s="34">
+        <v>73</v>
+      </c>
+      <c r="J17" s="34">
+        <v>62</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="33">
+        <v>66</v>
+      </c>
+      <c r="E18" s="34">
+        <v>99</v>
+      </c>
+      <c r="F18" s="34">
         <v>98</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="G18" s="34">
+        <v>96</v>
+      </c>
+      <c r="H18" s="34">
+        <v>99</v>
+      </c>
+      <c r="I18" s="34">
+        <v>76</v>
+      </c>
+      <c r="J18" s="34">
+        <v>75</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="0"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="33">
+        <v>63</v>
+      </c>
+      <c r="E19" s="34">
+        <v>84</v>
+      </c>
+      <c r="F19" s="34">
+        <v>78</v>
+      </c>
+      <c r="G19" s="34">
+        <v>92</v>
+      </c>
+      <c r="H19" s="34">
         <v>97</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I19" s="34">
+        <v>81</v>
+      </c>
+      <c r="J19" s="34">
+        <v>91</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="0"/>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="33">
+        <v>67</v>
+      </c>
+      <c r="E20" s="34">
+        <v>97</v>
+      </c>
+      <c r="F20" s="34">
+        <v>52</v>
+      </c>
+      <c r="G20" s="34">
+        <v>66</v>
+      </c>
+      <c r="H20" s="34">
+        <v>77</v>
+      </c>
+      <c r="I20" s="34">
+        <v>71</v>
+      </c>
+      <c r="J20" s="34">
         <v>96</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="K20" s="19">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="33">
+        <v>56</v>
+      </c>
+      <c r="E21" s="34">
+        <v>73</v>
+      </c>
+      <c r="F21" s="34">
+        <v>91</v>
+      </c>
+      <c r="G21" s="34">
+        <v>64</v>
+      </c>
+      <c r="H21" s="34">
+        <v>98</v>
+      </c>
+      <c r="I21" s="34">
+        <v>84</v>
+      </c>
+      <c r="J21" s="34">
+        <v>68</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="33">
+        <v>66</v>
+      </c>
+      <c r="E22" s="34">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="24">
-        <f>SUM(E5:J5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="20">
-        <f>SUM(E6:J6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="F22" s="34">
         <v>88</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="20">
-        <f>SUM(E7:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="20">
-        <f>SUM(E8:J8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="G22" s="34">
         <v>63</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="20">
-        <f>SUM(E9:J9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="20">
-        <f>SUM(E10:J10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="20">
-        <f>SUM(E11:J11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="20">
-        <f>SUM(E12:J12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="H22" s="34">
+        <v>100</v>
+      </c>
+      <c r="I22" s="34">
+        <v>54</v>
+      </c>
+      <c r="J22" s="34">
         <v>77</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="20">
-        <f>SUM(E13:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="20">
-        <f>SUM(E14:J14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="20">
-        <f>SUM(E15:J15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="20">
-        <f>SUM(E16:J16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="20">
-        <f>SUM(E17:J17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="20">
-        <f>SUM(E18:J18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="20">
-        <f>SUM(E19:J19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="20">
-        <f>SUM(E20:J20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="20">
-        <f>SUM(E21:J21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="20">
-        <f>SUM(E22:J22)</f>
-        <v>0</v>
+      <c r="K22" s="19">
+        <f t="shared" si="0"/>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
